--- a/biology/Virologie/Lev_Zilber/Lev_Zilber.xlsx
+++ b/biology/Virologie/Lev_Zilber/Lev_Zilber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lev Alexandrovitch Zilber (en russe : Лев Александрович Зильбер), né le 15 mars 1894 à Medved, gouvernement de Novgorod dans l'Empire russe[1] et mort le 10 novembre 1966 à Moscou en URSS[2], est un virologue et immunologiste soviétique, fondateur de l'école soviétique russe de virologie médicale. Il est impliqué dans la description de l'encéphalite à tique et développe à partir de 1945 une théorie virale de l'origine des cancers. Il reçoit le prix Staline en 1946. Il est le frère aîné de l'écrivain Benjamin Kaverine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lev Alexandrovitch Zilber (en russe : Лев Александрович Зильбер), né le 15 mars 1894 à Medved, gouvernement de Novgorod dans l'Empire russe et mort le 10 novembre 1966 à Moscou en URSS, est un virologue et immunologiste soviétique, fondateur de l'école soviétique russe de virologie médicale. Il est impliqué dans la description de l'encéphalite à tique et développe à partir de 1945 une théorie virale de l'origine des cancers. Il reçoit le prix Staline en 1946. Il est le frère aîné de l'écrivain Benjamin Kaverine.
 </t>
         </is>
       </c>
